--- a/Excel/echo.xlsx
+++ b/Excel/echo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -115,42 +115,15 @@
     <t>|&lt; Effect Menu</t>
   </si>
   <si>
-    <t>इको - ऑडेसिटी मॅन्युअल</t>
-  </si>
-  <si>
     <t>प्रतिध्वनी</t>
   </si>
   <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
-    <t>येथे जा: सुचालन, शोध</t>
-  </si>
-  <si>
-    <t>हा प्रभाव आपण पुन्हा पुन्हा निवडलेल्या ऑडिओची पुनरावृत्ती करतो, सामान्यत: प्रत्येक वेळी मऊ होतो. प्रत्येक पुनरावृत्ती दरम्यान विलंब वेळ निश्चित केली आहे, प्रत्येक पुनरावृत्ती दरम्यान विराम न देता.</t>
-  </si>
-  <si>
-    <t>यावर प्रवेश: प्रभाव&gt; प्रतिध्वनी ...</t>
-  </si>
-  <si>
-    <t>जोपर्यंत आपली विनंती केली गेलेली प्रतिध्वनी (उशीर वेळ) निवडीच्या लांबीपेक्षा कमी नसेल तोपर्यंत कोणतेही प्रतिध्वनी तयार होणार नाहीत. तसेच इको निवडलेल्या पलीकडे अतिरिक्त ऑडिओ व्युत्पन्न करत नाही. म्हणून आवश्यक असल्यास आपण आपल्या प्रतिध्वनी सेटिंग्ज समायोजित करण्यासाठी आपल्या ट्रॅकच्या शेवटी पुरेसे शांतता जोडणे आवश्यक आहे.</t>
-  </si>
-  <si>
     <t>शांतता जोडण्यासाठी:</t>
   </si>
   <si>
-    <t>निवडीमध्ये क्लिक करा आणि आपल्या कीबोर्डवरील समाप्त दाबा, किंवा परिवहन&gt; कर्सर करण्यासाठी&gt; ट्रॅक एंड निवडा</t>
-  </si>
-  <si>
     <t>व्युत्पन्न&gt; शांतता निवडा ...</t>
   </si>
   <si>
-    <t>आपण निवडलेल्या ऑडिओमध्ये जोडू इच्छित शांततेचा कालावधी निवडा आणि ठीक क्लिक करा.</t>
-  </si>
-  <si>
-    <t>यामुळे व्युत्पन्न केलेला शांतता निवडला जातो. इको इफेक्ट स्वतः चालविण्यापूर्वी, मूळ ऑडिओ आणि घातलेला मौन (किंवा शिफ्ट दाबा आणि मुख्यपृष्ठ दाबा) दोन्ही निवडण्यासाठी ट्रॅक नियंत्रण पॅनेलवर क्लिक करा.</t>
-  </si>
-  <si>
     <t>विलंब वेळ (सेकंद)</t>
   </si>
   <si>
@@ -160,45 +133,15 @@
     <t>क्षय घटक</t>
   </si>
   <si>
-    <t>सहसा 0 आणि 1 दरम्यानची संख्या.</t>
-  </si>
-  <si>
-    <t>0 चे मूल्य म्हणजे प्रतिध्वनी नाही आणि 1 च्या मूल्याचा अर्थ असा आहे की प्रत्येक प्रतिध्वनी मूळपेक्षा तितकीच जोरात आहे, म्हणूनच हे विद्यमान निवड केवळ अपरिवर्तितपणे वाढवते. 0.5 चे मूल्य प्रत्येक प्रतिध्वनीचे मोठेपणा किंवा मोठापणा प्रत्येक वेळी अर्ध्या वेळेस कमी करते, म्हणून ऑडिओ बर्‍याच हळूहळू मरून जातो. छोट्या छोट्या मूल्यांमुळे ते अधिक लवकर मरत आहे. 1 वरील मूल्ये प्रतिध्वनीचे मोठेपणा प्रत्येक वेळी वाढवतात, ज्याचा आपण विशेष प्रभाव म्हणून वापर करू शकता.</t>
-  </si>
-  <si>
-    <t>प्रतिध्वनी मूळ ऑडिओमध्ये अनेकदा जोडल्या गेल्यामुळे, प्रक्रिया केलेल्या ऑडिओमध्ये बर्‍याचदा मूळपेक्षा उच्च पातळी असते. क्लीपिंग परिणाम असल्यास आपण संपादन&gt; प्रतिध्वनी पूर्ववत करू शकता, प्रभाव&gt; खालच्या स्तरावर वाढवा, नंतर पुन्हा एको लागू करा.</t>
-  </si>
-  <si>
-    <t>लूपसाठी इको वापरणे: लूपच्या प्रत्येक विभागातील अंतरांबद्दल कोणतीही अडचण न घेता व्हॉल्यूम बदलांसह साधे लूप तयार करण्यासाठी इको वापरला जाऊ शकतो.</t>
-  </si>
-  <si>
-    <t>आपल्याला व्हॉल्यूम बदल न करता पळवाट इच्छित असल्यास, त्याऐवजी प्रभाव&gt; पुनरावृत्ती ... वापरा.</t>
-  </si>
-  <si>
-    <t>आपण प्रभाव&gt; विलंब ... सह प्रतिध्वनी देखील तयार करू शकता जे आपल्या निवडलेल्या विलंब वेळेसाठी आणि प्रतिध्वनींच्या संख्येसाठी आवश्यक अतिरिक्त ऑडिओ व्युत्पन्न करते.</t>
-  </si>
-  <si>
     <t>कमांड बटणावर क्लिक केल्याने खालील परिणाम मिळतात:</t>
   </si>
   <si>
     <t>व्यवस्थापित करा ड्रॉपडाउन मेनू आपल्याला साधनाचे प्रीसेट सेट करण्यास आणि टूलबद्दल काही तपशील पाहण्यास सक्षम करते. तपशीलांसाठी प्रीसेट्स व्यवस्थापित करा पहा</t>
   </si>
   <si>
-    <t>पूर्वावलोकन ऑडिओमध्ये वास्तविक बदल न करता, प्रभाव वर्तमान सेटिंग्जसह लागू केल्यास ऑडिओला काय वाटेल हे एक लहान पूर्वावलोकन प्ले करते.</t>
-  </si>
-  <si>
-    <t>पूर्वावलोकनाची लांबी संपादन&gt; प्राधान्ये&gt; प्लेबॅक मधील आपल्या सेटिंगद्वारे निश्चित केली जाते, डीफॉल्ट सेटिंग 6 सेकंद असते.</t>
-  </si>
-  <si>
     <t>ठीक आहे सध्याच्या प्रभाव सेटिंग्जसह निवडलेल्या ऑडिओवर प्रभाव लागू करते आणि संवाद बंद करते</t>
   </si>
   <si>
-    <t>रद्द करा प्रभाव सोडतो आणि संवाद बंद केल्यामुळे ऑडिओमध्ये कोणताही बदल होत नाही</t>
-  </si>
-  <si>
-    <t>या पृष्ठावरील मॅन्युअलमध्ये आपल्याला योग्य पृष्ठावर आणते</t>
-  </si>
-  <si>
     <t>दुवे</t>
   </si>
   <si>
@@ -206,6 +149,63 @@
   </si>
   <si>
     <t>| &lt;प्रभाव मेनू</t>
+  </si>
+  <si>
+    <t>प्रतिध्वनी - ओड्यासिटी माहितीपुस्तका</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विकासाच्या माहितीपुस्तीकेवरून</t>
+  </si>
+  <si>
+    <t>येथे जा: निर्देशांक, शोधा</t>
+  </si>
+  <si>
+    <t>हा प्रभाव आपण पुन्हा पुन्हा निवडलेल्या ध्वनीची पुनरावृत्ती करतो, सामान्यत: प्रत्येक वेळी मऊ होतो. प्रत्येक पुनरावृत्ती दरम्यान विलंब वेळ निश्चित केली आहे, प्रत्येक पुनरावृत्ती दरम्यान विराम न देता.</t>
+  </si>
+  <si>
+    <t>द्वारे प्रवेश: प्रभाव&gt; प्रतिध्वनी ...</t>
+  </si>
+  <si>
+    <t>जोपर्यंत आपली विनंती केली गेलेली प्रतिध्वनी (उशीर वेळ) निवडीच्या लांबीपेक्षा कमी नसेल तोपर्यंत कोणतेही प्रतिध्वनी तयार होणार नाहीत. तसेच प्रतिध्वनी निवडलेल्या पलीकडे अतिरिक्त ध्वनी व्युत्पन्न करत नाही. म्हणून आवश्यक असल्यास आपण आपल्या प्रतिध्वनी सेटिंग्ज समायोजित करण्यासाठी आपल्या गीतपट्टाच्या शेवटी पुरेसे शांतता जोडणे आवश्यक आहे.</t>
+  </si>
+  <si>
+    <t>निवडीमध्ये क्लिक करा आणि आपल्या कीबोर्डवरील समाप्त दाबा, किंवा परिवहन&gt; कर्सर करण्यासाठी&gt; गीतपट्टाचा एंड निवडा</t>
+  </si>
+  <si>
+    <t>आपण निवडलेल्या ध्वनीमध्ये जोडू इच्छित शांततेचा कालावधी निवडा आणि ठीक क्लिक करा.</t>
+  </si>
+  <si>
+    <t>यामुळे व्युत्पन्न केलेला शांतता निवडला जातो. प्रतिध्वनी प्रभाव स्वतः चालविण्यापूर्वी, मूळ ध्वनी आणि घातलेला मौन (किंवा शिफ्ट दाबा आणि मुख्यपृष्ठ दाबा) दोन्ही निवडण्यासाठी गीतपट्टा नियंत्रण पॅनेलवर क्लिक करा.</t>
+  </si>
+  <si>
+    <t>सहसा ० आणि १ दरम्यानची संख्या.</t>
+  </si>
+  <si>
+    <t>० चे मूल्य म्हणजे प्रतिध्वनी नाही आणि १ च्या मूल्याचा अर्थ असा आहे की प्रत्येक प्रतिध्वनी मूळपेक्षा तितकीच जोरात आहे, म्हणूनच हे विद्यमान निवड केवळ अपरिवर्तितपणे वाढवते. ०.५ चे मूल्य प्रत्येक प्रतिध्वनीचे मोठेपणा किंवा मोठापणा प्रत्येक वेळी अर्ध्या वेळेस कमी करते, म्हणून ध्वनी बर्‍याच हळूहळू मरून जातो. छोट्या छोट्या मूल्यांमुळे ते अधिक लवकर मरत आहे. १ वरील मूल्ये प्रतिध्वनीचे मोठेपणा प्रत्येक वेळी वाढवतात, ज्याचा आपण विशेष प्रभाव म्हणून वापर करू शकता.</t>
+  </si>
+  <si>
+    <t>प्रतिध्वनी मूळ ध्वनीमध्ये अनेकदा जोडल्या गेल्यामुळे, प्रक्रिया केलेल्या ध्वनीमध्ये बर्‍याचदा मूळपेक्षा उच्च पातळी असते. क्लीपिंग परिणाम असल्यास आपण संपादन&gt; प्रतिध्वनी पूर्ववत करू शकता, प्रभाव&gt; खालच्या स्तरावर वाढवा, नंतर पुन्हा प्रतिध्वनी लागू करा.</t>
+  </si>
+  <si>
+    <t>लूपसाठी प्रतिध्वनी वापरणे: लूपच्या प्रत्येक विभागातील अंतरांबद्दल कोणतीही अडचण न घेता आवाजाच्या बदलांसह साधे लूप तयार करण्यासाठी प्रतिध्वनी वापरला जाऊ शकतो.</t>
+  </si>
+  <si>
+    <t>आपल्याला आवाजात बदल न करता पळवाट इच्छित असल्यास, त्याऐवजी प्रभाव&gt; पुनरावृत्ती ... वापरा.</t>
+  </si>
+  <si>
+    <t>आपण प्रभाव&gt; विलंब ... सह प्रतिध्वनी देखील तयार करू शकता जे आपल्या निवडलेल्या विलंब वेळेसाठी आणि प्रतिध्वनींच्या संख्येसाठी आवश्यक अतिरिक्त ध्वनी व्युत्पन्न करते.</t>
+  </si>
+  <si>
+    <t>पूर्वावलोकन ध्वनीमध्ये वास्तविक बदल न करता, प्रभाव वर्तमान सेटिंग्जसह लागू केल्यास ध्वनीला काय वाटेल हे एक लहान पूर्वावलोकन प्ले करते.</t>
+  </si>
+  <si>
+    <t>पूर्वावलोकनाची लांबी संपादन&gt; प्राधान्ये&gt; प्लेबॅक मधील आपल्या सेटिंगद्वारे निश्चित केली जाते, डीफॉल्ट सेटिंग ६ सेकंद असते.</t>
+  </si>
+  <si>
+    <t>रद्द करा प्रभाव सोडतो आणि संवाद बंद केल्यामुळे ध्वनीमध्ये कोणताही बदल होत नाही</t>
+  </si>
+  <si>
+    <t>या पृष्ठावरील महतीतीपुस्तिकेमध्ये आपल्याला योग्य पृष्ठावर आणते</t>
   </si>
 </sst>
 </file>
@@ -264,11 +264,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,9 +566,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
@@ -585,7 +592,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -596,7 +603,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -607,7 +614,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -618,7 +625,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -629,7 +636,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -640,7 +647,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -650,8 +657,8 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>39</v>
+      <c r="C8" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -662,7 +669,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -673,7 +680,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -684,7 +691,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -695,7 +702,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -706,7 +713,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -717,7 +724,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -728,7 +735,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -739,7 +746,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -750,7 +757,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -760,8 +767,8 @@
       <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" t="s">
-        <v>49</v>
+      <c r="C18" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -772,7 +779,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -783,7 +790,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -794,7 +801,7 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -805,7 +812,7 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -816,7 +823,7 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -827,7 +834,7 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -838,7 +845,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -849,7 +856,7 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -860,7 +867,7 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -871,7 +878,7 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -882,7 +889,7 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -893,7 +900,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -904,7 +911,7 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -915,10 +922,11 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>